--- a/regionseng/6/employment and unemployment/wages.xlsx
+++ b/regionseng/6/employment and unemployment/wages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <t xml:space="preserve">Imereti </t>
   </si>
   <si>
-    <t>Average monthly nominal earnings*, 2010-2020</t>
+    <t>GEL</t>
   </si>
   <si>
-    <t>GEL</t>
+    <t>Average monthly nominal earnings*, 2010-2022</t>
   </si>
 </sst>
 </file>
@@ -35,7 +35,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +109,13 @@
     <font>
       <sz val="11"/>
       <name val="Cambri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -186,8 +193,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -501,18 +508,18 @@
   <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="12" width="8.7109375" customWidth="1"/>
+    <col min="2" max="14" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -525,8 +532,8 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -551,8 +558,10 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="9" t="s">
-        <v>3</v>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -590,6 +599,12 @@
       <c r="L3" s="2">
         <v>2020</v>
       </c>
+      <c r="M3" s="2">
+        <v>2021</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2022</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="10" t="s">
@@ -628,6 +643,12 @@
       <c r="L4" s="6">
         <v>842.56531853072192</v>
       </c>
+      <c r="M4" s="6">
+        <v>944.03262013908977</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1147.8984238195108</v>
+      </c>
     </row>
     <row r="5" spans="1:33" ht="15" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -636,7 +657,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/regionseng/6/employment and unemployment/wages.xlsx
+++ b/regionseng/6/employment and unemployment/wages.xlsx
@@ -25,7 +25,7 @@
     <t>GEL</t>
   </si>
   <si>
-    <t>Average monthly nominal earnings*, 2010-2022</t>
+    <t>Average monthly nominal earnings*, 2010-2023</t>
   </si>
 </sst>
 </file>
@@ -508,13 +508,13 @@
   <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="14" width="8.7109375" customWidth="1"/>
+    <col min="2" max="15" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15" customHeight="1">
@@ -534,7 +534,7 @@
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
-      <c r="O1" s="4"/>
+      <c r="O1" s="11"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
@@ -560,7 +560,8 @@
       <c r="K2" s="7"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -605,6 +606,9 @@
       <c r="N3" s="2">
         <v>2022</v>
       </c>
+      <c r="O3" s="2">
+        <v>2023</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="10" t="s">
@@ -649,6 +653,9 @@
       <c r="N4" s="6">
         <v>1147.8984238195108</v>
       </c>
+      <c r="O4" s="6">
+        <v>1133.967968030159</v>
+      </c>
     </row>
     <row r="5" spans="1:33" ht="15" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -657,7 +664,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
